--- a/data/hotels_by_city/Houston/Houston_shard_333.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_333.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="290">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56780-d7374669-Reviews-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Conroe-Hotels-Holiday-Inn-Express-Suites-Houston-NW-Tomball-Area.h9226334.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531323089474&amp;cancellable=false&amp;regionId=6134431&amp;vip=false&amp;c=25985588-bf56-4260-abc8-4c6bbdf644fa&amp;mctc=9&amp;exp_dp=72&amp;exp_ts=1531323090176&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,761 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r586082616-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>56780</t>
+  </si>
+  <si>
+    <t>7374669</t>
+  </si>
+  <si>
+    <t>586082616</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>Was on an over night trip to the Houston area.  Needed a place to stay and found this place online.  The Holiday Inn Express Brand has become one of my favorites.  This one didn’t disappoint at all.  The room was very well appointed.  The bed was very comfy.  The bathroom was very clean.  Would definitely stay there again if I happen to be in the area.Only complaint that kept this from getting a 5 star rating was the room location and the noise.  We happen to have room 102.  It was located right next to an outside door.  Every time someone went through this door, we heard a very loud door slam.  Later in the evening it was so bad, as there were less people coming and going.  It was quite annoying.  So if you happen to stay here, don’t stay in 102!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Was on an over night trip to the Houston area.  Needed a place to stay and found this place online.  The Holiday Inn Express Brand has become one of my favorites.  This one didn’t disappoint at all.  The room was very well appointed.  The bed was very comfy.  The bathroom was very clean.  Would definitely stay there again if I happen to be in the area.Only complaint that kept this from getting a 5 star rating was the room location and the noise.  We happen to have room 102.  It was located right next to an outside door.  Every time someone went through this door, we heard a very loud door slam.  Later in the evening it was so bad, as there were less people coming and going.  It was quite annoying.  So if you happen to stay here, don’t stay in 102!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r573567534-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>573567534</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Stay.....A True 4.25 Rating </t>
+  </si>
+  <si>
+    <t>What a great stay for a business trip! We arrived late and our check in was flawless. We were on the first floor and the sound quality? Top notch!!!! The room was very spacious, excellent bathroom facility, ventilation and amenities. Great water pressure and drain ability. Bonus on the Kourig in room coffee machine with a selection of K-Cups. Outstanding breakfast area. Highway accessibility for our destination was perfect. A highly recommended stay! MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Gabriel R, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded April 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2018</t>
+  </si>
+  <si>
+    <t>What a great stay for a business trip! We arrived late and our check in was flawless. We were on the first floor and the sound quality? Top notch!!!! The room was very spacious, excellent bathroom facility, ventilation and amenities. Great water pressure and drain ability. Bonus on the Kourig in room coffee machine with a selection of K-Cups. Outstanding breakfast area. Highway accessibility for our destination was perfect. A highly recommended stay! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r564636383-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>564636383</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Nice room</t>
+  </si>
+  <si>
+    <t>I was attending a wedding and this was the official wedding hotel.  Upon checking in, I was given a little gift for staying, as well as a wedding favor left by the bride.  I was also told that the shuttle would be leaving in a little more than an hour to get to the venue (wedding was at 5pm).  So I got to the room and changed.  Upon my return to the hotel I showered and changed and crawled into the comfy bed.  The only bad thing was the noise coming from above.  No, it wasn't God trying to smite me, but I think it was a group of students that were staying there.  It kept me from falling asleep immediately, but since I had a lot of alcohol earlier in the evening sleep still came.  I tried to get up in time for breakfast, but wasn't able to.  But the room was nice, check in and check out was quick and easy, showers were hot, bed and pillows were comfy, and parking was free.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Gabriel R, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded March 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2018</t>
+  </si>
+  <si>
+    <t>I was attending a wedding and this was the official wedding hotel.  Upon checking in, I was given a little gift for staying, as well as a wedding favor left by the bride.  I was also told that the shuttle would be leaving in a little more than an hour to get to the venue (wedding was at 5pm).  So I got to the room and changed.  Upon my return to the hotel I showered and changed and crawled into the comfy bed.  The only bad thing was the noise coming from above.  No, it wasn't God trying to smite me, but I think it was a group of students that were staying there.  It kept me from falling asleep immediately, but since I had a lot of alcohol earlier in the evening sleep still came.  I tried to get up in time for breakfast, but wasn't able to.  But the room was nice, check in and check out was quick and easy, showers were hot, bed and pillows were comfy, and parking was free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r488459851-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>488459851</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great staff. This was probably the cleanest hotel we have ever stayed in. We travel a lot for baseball and always stay at Holiday Inn. This one is by far the cleanest I have come across. Bed very comfortable. Same free standard breakfast. Great place to stay. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r480357288-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>480357288</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Great Customer Service and Hotel</t>
+  </si>
+  <si>
+    <t>This hotel has one of the best breakfast I've had! It centrally located in Tomball. The rooms and hotel were very cleaned and seemed pretty new. The staff is also very friendly. I had stayed for a week, and a lot of the staff members called me by name! They made me feel like this was my home away from home. The wifi was also great and there were plenty of outlets easily accessible. I do a lot of my work from my room and rely on a good internet connection.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Darrel S, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>This hotel has one of the best breakfast I've had! It centrally located in Tomball. The rooms and hotel were very cleaned and seemed pretty new. The staff is also very friendly. I had stayed for a week, and a lot of the staff members called me by name! They made me feel like this was my home away from home. The wifi was also great and there were plenty of outlets easily accessible. I do a lot of my work from my room and rely on a good internet connection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r468814034-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>468814034</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>During our visit, we enjoyed staying at the Holiday Inn Express. The room had everything we could ask for, no noise and a great breakfast. Also, the staff was great. We will definitely stay here again when in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Darrel S, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded March 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2017</t>
+  </si>
+  <si>
+    <t>During our visit, we enjoyed staying at the Holiday Inn Express. The room had everything we could ask for, no noise and a great breakfast. Also, the staff was great. We will definitely stay here again when in the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r420631008-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>420631008</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Great beds</t>
+  </si>
+  <si>
+    <t>Most comfortable bed we've encountered on our trip.  The rooms have showers, no tubs, WIN WIN.  Could have used a little more water pressure though.  HI has great cinnamon rolls in the morning.  The rest of the breakfast is pretty typical.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded September 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2016</t>
+  </si>
+  <si>
+    <t>Most comfortable bed we've encountered on our trip.  The rooms have showers, no tubs, WIN WIN.  Could have used a little more water pressure though.  HI has great cinnamon rolls in the morning.  The rest of the breakfast is pretty typical.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r416630053-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>416630053</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>A great, stress free visit</t>
+  </si>
+  <si>
+    <t>We had to stay here a few days while our house was being packed up and treated for the recent flooding in our area.  Check in and out was seamless, and every time we entered or left the premises someone greeted us.The cleanliness, quietness, and quality was the first thing that impressed us.  The room, furnishings, linens, and supplies exceeded our expectations.  We were able to catch up on our sleep and needed rest.The breakfast was pretty good.  I especially enjoyed the omelettes, and there was a wide enough selection to satisfy a picky eater.  I was very impressed by the cleanliness of the area and the attentiveness of the staff.Convenient to everything.  Safe, well lighted parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Divyesh P, Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2016</t>
+  </si>
+  <si>
+    <t>We had to stay here a few days while our house was being packed up and treated for the recent flooding in our area.  Check in and out was seamless, and every time we entered or left the premises someone greeted us.The cleanliness, quietness, and quality was the first thing that impressed us.  The room, furnishings, linens, and supplies exceeded our expectations.  We were able to catch up on our sleep and needed rest.The breakfast was pretty good.  I especially enjoyed the omelettes, and there was a wide enough selection to satisfy a picky eater.  I was very impressed by the cleanliness of the area and the attentiveness of the staff.Convenient to everything.  Safe, well lighted parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r413319239-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>413319239</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Friendly, Modern, Clean and super cool pancake machine</t>
+  </si>
+  <si>
+    <t>Came for a soccer tournament was delighted upon arrival as this place is either new or really recently updated.  The rooms were clean, nice bath stuff, tv was as expected and beds felt new.  Small fridge fit waters and sport drinks.  Breakfast the next morning was great.  Everything was fresh.  Omelettes, Pancakes, bagels, sausages and gravy and biscuits.  Fruit and juices and coffee, etc... Probably the nicest breakfast layouts i have seen.  The staff was really friendly and accommodating.  The parking lot was safe and well lit. I think our team will continue to use this specific hotel for sure when we travel to this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Divyesh P, Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Came for a soccer tournament was delighted upon arrival as this place is either new or really recently updated.  The rooms were clean, nice bath stuff, tv was as expected and beds felt new.  Small fridge fit waters and sport drinks.  Breakfast the next morning was great.  Everything was fresh.  Omelettes, Pancakes, bagels, sausages and gravy and biscuits.  Fruit and juices and coffee, etc... Probably the nicest breakfast layouts i have seen.  The staff was really friendly and accommodating.  The parking lot was safe and well lit. I think our team will continue to use this specific hotel for sure when we travel to this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r387590952-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>387590952</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Pleasant stay with an extremely helpful front desk</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel 6/24-26 for a baseball tournament at the nearby Premier  Baseball complex. 
+The best part of our stay was the front desk attendant, Kyle.It was so pleasant to interact with an employee who went beyond his job description and took the initiative to do whatever he could to make us happy. We arrived at the hotel after a 5 hour drive and found the group we were meeting were heading out to dinner. My 2 twelve year olds did not want to get back in the car so I reluctantly agreed to order them a pizza while we were dining across the street. Kyle helped me arrange the pizza and, recognizing my uneasiness, assured me he would make sure it all worked out. Kyle made sure all went smoothly AND called me at the restaurant to tell me everything was fine. When I returned to the room I found out he also called my kids to check on them and make sure they didn't need anything. It was great to interact with a young man who truly wants to do his job to the best of his ability.
+The hotel was very clean and beds were comfortable with soft and hard pillow choices. I prefer a softer bed but others found them to be fine. Breakfast was a typical free hotel breakfast with cereals, bicuits and gravy, sausage, bacon and eggs. One day they brought out...We stayed at this hotel 6/24-26 for a baseball tournament at the nearby Premier  Baseball complex. The best part of our stay was the front desk attendant, Kyle.It was so pleasant to interact with an employee who went beyond his job description and took the initiative to do whatever he could to make us happy. We arrived at the hotel after a 5 hour drive and found the group we were meeting were heading out to dinner. My 2 twelve year olds did not want to get back in the car so I reluctantly agreed to order them a pizza while we were dining across the street. Kyle helped me arrange the pizza and, recognizing my uneasiness, assured me he would make sure it all worked out. Kyle made sure all went smoothly AND called me at the restaurant to tell me everything was fine. When I returned to the room I found out he also called my kids to check on them and make sure they didn't need anything. It was great to interact with a young man who truly wants to do his job to the best of his ability.The hotel was very clean and beds were comfortable with soft and hard pillow choices. I prefer a softer bed but others found them to be fine. Breakfast was a typical free hotel breakfast with cereals, bicuits and gravy, sausage, bacon and eggs. One day they brought out small omelots which were surprisingly very good. They also had a machine that made pancakes and absolutely awesome warm cinnamon rolls!I'm not sure how the maid service is because our room was not cleaned. We were there for 2 nights so it would only have been cleaned once but there must have been a mixup because that didn't happen. We were in the room until noon and they had been on our floor earlier so maybe they just forgot to come back. It wasn't a big deal.If you would like a slightly larger room ask for 137, 237 or 337. These rooms are at the end of the hall and are a few feet wider than others.This hotel is also in a great location. There are many restaurants and stores all around it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded July 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel 6/24-26 for a baseball tournament at the nearby Premier  Baseball complex. 
+The best part of our stay was the front desk attendant, Kyle.It was so pleasant to interact with an employee who went beyond his job description and took the initiative to do whatever he could to make us happy. We arrived at the hotel after a 5 hour drive and found the group we were meeting were heading out to dinner. My 2 twelve year olds did not want to get back in the car so I reluctantly agreed to order them a pizza while we were dining across the street. Kyle helped me arrange the pizza and, recognizing my uneasiness, assured me he would make sure it all worked out. Kyle made sure all went smoothly AND called me at the restaurant to tell me everything was fine. When I returned to the room I found out he also called my kids to check on them and make sure they didn't need anything. It was great to interact with a young man who truly wants to do his job to the best of his ability.
+The hotel was very clean and beds were comfortable with soft and hard pillow choices. I prefer a softer bed but others found them to be fine. Breakfast was a typical free hotel breakfast with cereals, bicuits and gravy, sausage, bacon and eggs. One day they brought out...We stayed at this hotel 6/24-26 for a baseball tournament at the nearby Premier  Baseball complex. The best part of our stay was the front desk attendant, Kyle.It was so pleasant to interact with an employee who went beyond his job description and took the initiative to do whatever he could to make us happy. We arrived at the hotel after a 5 hour drive and found the group we were meeting were heading out to dinner. My 2 twelve year olds did not want to get back in the car so I reluctantly agreed to order them a pizza while we were dining across the street. Kyle helped me arrange the pizza and, recognizing my uneasiness, assured me he would make sure it all worked out. Kyle made sure all went smoothly AND called me at the restaurant to tell me everything was fine. When I returned to the room I found out he also called my kids to check on them and make sure they didn't need anything. It was great to interact with a young man who truly wants to do his job to the best of his ability.The hotel was very clean and beds were comfortable with soft and hard pillow choices. I prefer a softer bed but others found them to be fine. Breakfast was a typical free hotel breakfast with cereals, bicuits and gravy, sausage, bacon and eggs. One day they brought out small omelots which were surprisingly very good. They also had a machine that made pancakes and absolutely awesome warm cinnamon rolls!I'm not sure how the maid service is because our room was not cleaned. We were there for 2 nights so it would only have been cleaned once but there must have been a mixup because that didn't happen. We were in the room until noon and they had been on our floor earlier so maybe they just forgot to come back. It wasn't a big deal.If you would like a slightly larger room ask for 137, 237 or 337. These rooms are at the end of the hall and are a few feet wider than others.This hotel is also in a great location. There are many restaurants and stores all around it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r383231990-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>383231990</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>"Taking the time"</t>
+  </si>
+  <si>
+    <t>We were very thankful for the excellent service Kimberly was able to provide to my family. She always had a smile on her face and greeted us everytime we came in the door. My experience was very memorable. Our stay was for quite a few days and there were a few issues with the billing but we kept being told only the manager could help us. After finally talking to Kimberly about the situation.....there was no hesitation she immediately looked into the issue and resolved it. Kimberly took the time that no one else was willing to take She cared and that meant a lot to my family. Thank you, Kimberly!!As far as ou stay, it was very comfortable. The rooms were clean. The breakfast area was always very clean. I believe her name was Tomasa...did an amazing job with making sure all the food stayed filled and we had everything we needed. She would check with my family every morning to see if we needed anything. She did an amazing job. We would definitely come back. MoreShow less</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded June 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2016</t>
+  </si>
+  <si>
+    <t>We were very thankful for the excellent service Kimberly was able to provide to my family. She always had a smile on her face and greeted us everytime we came in the door. My experience was very memorable. Our stay was for quite a few days and there were a few issues with the billing but we kept being told only the manager could help us. After finally talking to Kimberly about the situation.....there was no hesitation she immediately looked into the issue and resolved it. Kimberly took the time that no one else was willing to take She cared and that meant a lot to my family. Thank you, Kimberly!!As far as ou stay, it was very comfortable. The rooms were clean. The breakfast area was always very clean. I believe her name was Tomasa...did an amazing job with making sure all the food stayed filled and we had everything we needed. She would check with my family every morning to see if we needed anything. She did an amazing job. We would definitely come back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r383174130-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>383174130</t>
+  </si>
+  <si>
+    <t>When you are short staffed and someone steps up!</t>
+  </si>
+  <si>
+    <t>Every time you pass the front desk you are greeted. When you leave and even when you return you are welcomed back. They made us feel very comfortable. They were short staffed a few days we were there and obviously the hotel still has to run. Kyle ran the front desk but I saw him welcome the opportunity to help others in every way he could. He was at the pool doing the maintenance man's job at one point. I needed to approach other people for help and that did not go so well. This location is very fortunate to have Kyle. Kyle always has a smile on his face and is so great with the guests and children. He makes every effort to make every guest happy. He truly goes above and beyond what is expected from the front desk of a hotel. My families stay was for 8 days so I feel we got to know the staff pretty well. Kyle was someone we knew we could go to when we needed something. I would recommend you acknowledge your employees for the hard work they do. It can't be easy working a double shift while being short staffed too......and ran the location very smoothly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Every time you pass the front desk you are greeted. When you leave and even when you return you are welcomed back. They made us feel very comfortable. They were short staffed a few days we were there and obviously the hotel still has to run. Kyle ran the front desk but I saw him welcome the opportunity to help others in every way he could. He was at the pool doing the maintenance man's job at one point. I needed to approach other people for help and that did not go so well. This location is very fortunate to have Kyle. Kyle always has a smile on his face and is so great with the guests and children. He makes every effort to make every guest happy. He truly goes above and beyond what is expected from the front desk of a hotel. My families stay was for 8 days so I feel we got to know the staff pretty well. Kyle was someone we knew we could go to when we needed something. I would recommend you acknowledge your employees for the hard work they do. It can't be easy working a double shift while being short staffed too......and ran the location very smoothly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r377363835-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>377363835</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Unexpected Traveler</t>
+  </si>
+  <si>
+    <t>I hadn't planned to stay in Tomball overnight, but a flood kept me from getting home. I was very impressed with the Holiday Inn! My room was immaculate, especially the bathroom. Plus, the front desk staff were very friendly. I appreciated the fact that the coffee pot was set up on the desk and not in the bathroom like other hotels. I would stay here again for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>I hadn't planned to stay in Tomball overnight, but a flood kept me from getting home. I was very impressed with the Holiday Inn! My room was immaculate, especially the bathroom. Plus, the front desk staff were very friendly. I appreciated the fact that the coffee pot was set up on the desk and not in the bathroom like other hotels. I would stay here again for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r376096803-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>376096803</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Loved our stay!!!</t>
+  </si>
+  <si>
+    <t>Room was very clean, quiet and comfortable.  Breakfast was amazing...thank you Tomasa for preparing great food and serving us with a beautiful smile!  We will definitely be staying here again!! Check in was quick and pleasant...and the clerk gave us ideas for restaurants for dinner.  All in all, a hotel stay doesn't get much better than this!MoreShow less</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Room was very clean, quiet and comfortable.  Breakfast was amazing...thank you Tomasa for preparing great food and serving us with a beautiful smile!  We will definitely be staying here again!! Check in was quick and pleasant...and the clerk gave us ideas for restaurants for dinner.  All in all, a hotel stay doesn't get much better than this!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r376063255-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>376063255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Above average </t>
+  </si>
+  <si>
+    <t>The hotel was clean, quiet, had decent wifi, and the usual free continental breakfast.  The staff was nice except for Joshua.  If he had been rude once I would have ignored it but he was rude multiple times.  I stayed here three different times during the months of March and April and every interaction with him except the last time was negative.  I'm assuming someone reported his behavior.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>The hotel was clean, quiet, had decent wifi, and the usual free continental breakfast.  The staff was nice except for Joshua.  If he had been rude once I would have ignored it but he was rude multiple times.  I stayed here three different times during the months of March and April and every interaction with him except the last time was negative.  I'm assuming someone reported his behavior.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r368273982-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>368273982</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>New, very nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed here for one night while visiting Houston, and it was a very nice hotel, seemed to be brand new, and if it wasn't, they sure do keep that place extremely clean and new-looking! There were two reasons for only the 3 star review.  The first was apparently the walls and especially the floors are thin.  Granted, we did have a 4 year old with us, but it seemed that walking around caused the people below us to complain to the manager and then call us about it; It's very possible that with a child in the room he could have been making some noise, but it was 10 PM when we checked in and we went to bed after getting changed.  The second issue was the buffet breakfast.  Yes, it was nice to have it included, but the food like the English muffins and bagels were stale.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for one night while visiting Houston, and it was a very nice hotel, seemed to be brand new, and if it wasn't, they sure do keep that place extremely clean and new-looking! There were two reasons for only the 3 star review.  The first was apparently the walls and especially the floors are thin.  Granted, we did have a 4 year old with us, but it seemed that walking around caused the people below us to complain to the manager and then call us about it; It's very possible that with a child in the room he could have been making some noise, but it was 10 PM when we checked in and we went to bed after getting changed.  The second issue was the buffet breakfast.  Yes, it was nice to have it included, but the food like the English muffins and bagels were stale.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r367632048-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>367632048</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Not Coming Back</t>
+  </si>
+  <si>
+    <t>We stayed here during our son's wedding.  The room was clean, but only received housekeeping service the room 2 out of 5 days.  We had to call for fresh towels each night so we could get cleaned up the next morning.  When speaking to the attendant after the third time, he said our "do not disturb" sign was up all day so they did not clean the room.  Not true at all.  He offered the phone number to speak to the manager at 10:30pm on the last night of our stay.  I declined and told him we will not be coming back and are very disappointed with this hotel.  We have stayed at other Holiday Inn properties and have never experienced this terrible service.Also, skip the morning food. It's awful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here during our son's wedding.  The room was clean, but only received housekeeping service the room 2 out of 5 days.  We had to call for fresh towels each night so we could get cleaned up the next morning.  When speaking to the attendant after the third time, he said our "do not disturb" sign was up all day so they did not clean the room.  Not true at all.  He offered the phone number to speak to the manager at 10:30pm on the last night of our stay.  I declined and told him we will not be coming back and are very disappointed with this hotel.  We have stayed at other Holiday Inn properties and have never experienced this terrible service.Also, skip the morning food. It's awful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r367076115-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>367076115</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>The extra touch!</t>
+  </si>
+  <si>
+    <t>We spent just one night in this hotel before returning to Europe, but we loved it! It’s new, nicely decorated and very well laid out. We had the two queen bed suite, which was nice and spacious for the three of us. There was an extra table with chairs in the kitchenette. Very friendly staff who organize a managers reception on weekday afternoons. Breakfast had all the choices and was well kept. The business center was perfect for printing our airplane tickets. All in all a Holiday Inn Express as expected but with a nice extra touch! The Hertz Neverlost had some trouble localizing the hotel, but it’s right on the east Frontage road of the Tomball Tollway. Next time in Houston, we will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2016</t>
+  </si>
+  <si>
+    <t>We spent just one night in this hotel before returning to Europe, but we loved it! It’s new, nicely decorated and very well laid out. We had the two queen bed suite, which was nice and spacious for the three of us. There was an extra table with chairs in the kitchenette. Very friendly staff who organize a managers reception on weekday afternoons. Breakfast had all the choices and was well kept. The business center was perfect for printing our airplane tickets. All in all a Holiday Inn Express as expected but with a nice extra touch! The Hertz Neverlost had some trouble localizing the hotel, but it’s right on the east Frontage road of the Tomball Tollway. Next time in Houston, we will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r363467785-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>363467785</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Lovely clean property</t>
+  </si>
+  <si>
+    <t>This hotel is not particularly well suited to my needs (going to get on a cruise ship) but it is a lovely facility.  Very clean, nice employees, large and comfortable rooms.  I would also say it is not that easy to locate - but if you need to be in the Tomball area, you couldn't ask for a nicer place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is not particularly well suited to my needs (going to get on a cruise ship) but it is a lovely facility.  Very clean, nice employees, large and comfortable rooms.  I would also say it is not that easy to locate - but if you need to be in the Tomball area, you couldn't ask for a nicer place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r362180665-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>362180665</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>EXCELLENT STAY</t>
+  </si>
+  <si>
+    <t>Travel was work related.  Spent various days at this location.  Experienced nothing but positive and friendly interaction from all staff.  From Joshua who checked us in and greeted us every night, to Tomasa who ensured we had a great breakfast and wished us a wonderful day.  All staff that we encountered were courteous and resourceful.  The room was clean and in great condition. The amenities in the room and in the hotel in general were on point! The bed was very comfortable. Wifi provided a good connectionThe only issue we found was that the walls in between the rooms are a bit too thin.MoreShow less</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded April 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2016</t>
+  </si>
+  <si>
+    <t>Travel was work related.  Spent various days at this location.  Experienced nothing but positive and friendly interaction from all staff.  From Joshua who checked us in and greeted us every night, to Tomasa who ensured we had a great breakfast and wished us a wonderful day.  All staff that we encountered were courteous and resourceful.  The room was clean and in great condition. The amenities in the room and in the hotel in general were on point! The bed was very comfortable. Wifi provided a good connectionThe only issue we found was that the walls in between the rooms are a bit too thin.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r362036150-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>362036150</t>
+  </si>
+  <si>
+    <t>Best Experience with IHG</t>
+  </si>
+  <si>
+    <t>I travel a lot for work and have stayed in plenty of hotels before and have certain preferences that come with staying in hotels and I have never had such great customer service before. I talked with a young lady I believe her name was Gabrielle, she went way above and beyond to make sure that my stay was nothing less than perfect. The young gentleman who checked me in Joshua was smiling before I walked in and the check in process was so smooth and fast. The next day Tomasa was a simple jewel she was already offering to replenish before I even knew I was needing it. Did not have a chance to meet the manager or I would have told him he has an amazing staff working for him. Great place to stay and will be back when I return to this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>I travel a lot for work and have stayed in plenty of hotels before and have certain preferences that come with staying in hotels and I have never had such great customer service before. I talked with a young lady I believe her name was Gabrielle, she went way above and beyond to make sure that my stay was nothing less than perfect. The young gentleman who checked me in Joshua was smiling before I walked in and the check in process was so smooth and fast. The next day Tomasa was a simple jewel she was already offering to replenish before I even knew I was needing it. Did not have a chance to meet the manager or I would have told him he has an amazing staff working for him. Great place to stay and will be back when I return to this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r356748972-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>356748972</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Some good, some not so good</t>
+  </si>
+  <si>
+    <t>I checked in and the gentleman was very friendly.  The lobby has a almost futuristic feel about it.  I noticed that the breakfast area appeared to be clean and neat.  There were not major problems with my stay, but little things that I felt could be improved.  I was on the top floor of the hotel, and at once when I left the elevator, a very strange and somewhat unpleasant odor was in the corridor.  I have no idea what it was, but I didn't care for it.  My room was clean, but also had a slightly strange odor, though not as strong as in the hallway.  I would not have been able to stay if it were.  The room was comfortable but the next morning when I got up, I went to make coffee with the provided coffee maker.  I didn't work.  I reported this when I checked out, but of course that didn't help me.  Overall, it is a decent hotel that can improve, but for the amount I was charged, I felt it should have been better.MoreShow less</t>
+  </si>
+  <si>
+    <t>I checked in and the gentleman was very friendly.  The lobby has a almost futuristic feel about it.  I noticed that the breakfast area appeared to be clean and neat.  There were not major problems with my stay, but little things that I felt could be improved.  I was on the top floor of the hotel, and at once when I left the elevator, a very strange and somewhat unpleasant odor was in the corridor.  I have no idea what it was, but I didn't care for it.  My room was clean, but also had a slightly strange odor, though not as strong as in the hallway.  I would not have been able to stay if it were.  The room was comfortable but the next morning when I got up, I went to make coffee with the provided coffee maker.  I didn't work.  I reported this when I checked out, but of course that didn't help me.  Overall, it is a decent hotel that can improve, but for the amount I was charged, I felt it should have been better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r340001447-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>340001447</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>Good stay would go again</t>
+  </si>
+  <si>
+    <t>Stayed in a hand Capp room and worked great for me. Breafest was very Goodall the person attending as very friendly and helpful. Wifi and tv worked great with no problems. Overall I would the service and management was very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded January 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2016</t>
+  </si>
+  <si>
+    <t>Stayed in a hand Capp room and worked great for me. Breafest was very Goodall the person attending as very friendly and helpful. Wifi and tv worked great with no problems. Overall I would the service and management was very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r339291463-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>339291463</t>
+  </si>
+  <si>
+    <t>01/11/2016</t>
+  </si>
+  <si>
+    <t>This place sets new standard for HIE</t>
+  </si>
+  <si>
+    <t>I stayed here for one night during a recent business trip and couldn't be happier.  This is a newer build HIE, designed with the latest modern amenities and furishings.The hotel is super clean and free of defects that are common with new builds that are thrown together in a hurry.  No nails sticking out, no paint smells, all in room appliances are in perfect working order, and all electric outlets are working and placed in every imaginable places - you will have plenty of places to plug in your chargers.Bathroom is well sized and has all the bath amenities one would expect plus a few extra goodies like makeup remover.  Faucet puts out a perfect amount of water in the optimized pressure and shower head provides a large spray pattern.Breakfast is the standard HIE spread.  Common and familiar everyday items that should get you charged and ready to go.Staff is friendly, effecient and accommodating.  Dinner restaurant recommendation was easy to find and super tasty.All in all, this is one of the best newer HIE I visited in a long time.  I would definitely come back when my next business trip take me to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded January 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for one night during a recent business trip and couldn't be happier.  This is a newer build HIE, designed with the latest modern amenities and furishings.The hotel is super clean and free of defects that are common with new builds that are thrown together in a hurry.  No nails sticking out, no paint smells, all in room appliances are in perfect working order, and all electric outlets are working and placed in every imaginable places - you will have plenty of places to plug in your chargers.Bathroom is well sized and has all the bath amenities one would expect plus a few extra goodies like makeup remover.  Faucet puts out a perfect amount of water in the optimized pressure and shower head provides a large spray pattern.Breakfast is the standard HIE spread.  Common and familiar everyday items that should get you charged and ready to go.Staff is friendly, effecient and accommodating.  Dinner restaurant recommendation was easy to find and super tasty.All in all, this is one of the best newer HIE I visited in a long time.  I would definitely come back when my next business trip take me to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r331015346-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>331015346</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly staff, clean hotel and good breakfast </t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay at this hotel. The hotel staff were extremely friendly and upbeat and attentive. The room and hotel both smelled and looked clean. Bed was super comfortable. We also really enjoyed the variety in breakfast and Tomosa the breakfast staff person (sp?) was very helpful. The coffee at this place was also very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2015</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay at this hotel. The hotel staff were extremely friendly and upbeat and attentive. The room and hotel both smelled and looked clean. Bed was super comfortable. We also really enjoyed the variety in breakfast and Tomosa the breakfast staff person (sp?) was very helpful. The coffee at this place was also very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r330417293-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>330417293</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We stayed at the Holiday Inn and Suites Tomball Tx for  5 days while visiting our family  The staff was friendly. Breakfast was outstanding thanks to Tomasa. .  Very clean   We would highly recommend this hotel if you are staying in the Tomball area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded December 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at the Holiday Inn and Suites Tomball Tx for  5 days while visiting our family  The staff was friendly. Breakfast was outstanding thanks to Tomasa. .  Very clean   We would highly recommend this hotel if you are staying in the Tomball area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r323500294-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>323500294</t>
+  </si>
+  <si>
+    <t>10/31/2015</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>What a wonderful surprise this hotel smelled clean!!  It was clean but to smell clean well for a hotel that is saying something!!!  Big rooms great staff!! Would stay again however next time I will ask what they clean withMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded November 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2015</t>
+  </si>
+  <si>
+    <t>What a wonderful surprise this hotel smelled clean!!  It was clean but to smell clean well for a hotel that is saying something!!!  Big rooms great staff!! Would stay again however next time I will ask what they clean withMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r318677165-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>318677165</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Wedding stay</t>
+  </si>
+  <si>
+    <t>We stayed in a suite here for a wedding weekend and the room and amenities were great. The wedding party rented the conference room and enjoyed partying there till late. Everything was very clean and updated. The breakfast is also very nice as well! MoreShow less</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded October 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2015</t>
+  </si>
+  <si>
+    <t>We stayed in a suite here for a wedding weekend and the room and amenities were great. The wedding party rented the conference room and enjoyed partying there till late. Everything was very clean and updated. The breakfast is also very nice as well! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r303366540-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>303366540</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>We stayed here recently and were very pleased with this hotel. Nice, clean room. Great breakfast selection, the best out of our whole cross country move actually. Very friendly staff. And close to a lot of dining and shops.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>We stayed here recently and were very pleased with this hotel. Nice, clean room. Great breakfast selection, the best out of our whole cross country move actually. Very friendly staff. And close to a lot of dining and shops.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r284230361-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>284230361</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Brand New Hotel, 2 Elevators and a Toenail</t>
+  </si>
+  <si>
+    <t>This hotel opened on June 24, 2015. We checked in June 25 so I was the first person to occupy my room. The pool was not ready yet. The room was clean (duh). Rate was $109 plus tax. Front desk service was attentive.
+My critique of a hotel revolves around PEP's Big 3: AC, Bed, Shower.
+AC gets huge props. Cold, cold cold. Bed grades an A, with both soft and firm pillows available. Shower grades a C, as the water never really got hot. I stayed here three nights and they never did get it fixed. 
+I think there might be some plumbing problems here as the toilet wouldn't flush completely. I took a plunger to it (even though there wasn't anything stuck in it) and that seemed to work. The next day, it was back to poorly flushing again. Hated to leave it that way for the housekeeper, but what are you gonna do?
+Obviously, two elevators is a huge time saver. Breakfast area is nice and large. There are two desktop computers available for use. Within walking distance is Schlotzky's, Whataburger, Walgreens, Specs, and Gianna's Italian Kitchen (recommended), among other things. Across the highway are multiple restaurants, a Target, a Lowes, Academy sports, etc.....The hotel is about 150 yards off the freeway so no traffic noises. Pool area is large for a Holiday Inn (but it wasn't open yet when I was there.) 
+Oh yeah, the toenail....This hotel opened on June 24, 2015. We checked in June 25 so I was the first person to occupy my room. The pool was not ready yet. The room was clean (duh). Rate was $109 plus tax. Front desk service was attentive.My critique of a hotel revolves around PEP's Big 3: AC, Bed, Shower.AC gets huge props. Cold, cold cold. Bed grades an A, with both soft and firm pillows available. Shower grades a C, as the water never really got hot. I stayed here three nights and they never did get it fixed. I think there might be some plumbing problems here as the toilet wouldn't flush completely. I took a plunger to it (even though there wasn't anything stuck in it) and that seemed to work. The next day, it was back to poorly flushing again. Hated to leave it that way for the housekeeper, but what are you gonna do?Obviously, two elevators is a huge time saver. Breakfast area is nice and large. There are two desktop computers available for use. Within walking distance is Schlotzky's, Whataburger, Walgreens, Specs, and Gianna's Italian Kitchen (recommended), among other things. Across the highway are multiple restaurants, a Target, a Lowes, Academy sports, etc.....The hotel is about 150 yards off the freeway so no traffic noises. Pool area is large for a Holiday Inn (but it wasn't open yet when I was there.) Oh yeah, the toenail. After I took a shower one night, I threw a toenail behind the nightstand as my way of christening the room as the first visitor. I am not sure if this is a time-honored hotelier tradition, but maybe I'll start a trend.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2015</t>
+  </si>
+  <si>
+    <t>This hotel opened on June 24, 2015. We checked in June 25 so I was the first person to occupy my room. The pool was not ready yet. The room was clean (duh). Rate was $109 plus tax. Front desk service was attentive.
+My critique of a hotel revolves around PEP's Big 3: AC, Bed, Shower.
+AC gets huge props. Cold, cold cold. Bed grades an A, with both soft and firm pillows available. Shower grades a C, as the water never really got hot. I stayed here three nights and they never did get it fixed. 
+I think there might be some plumbing problems here as the toilet wouldn't flush completely. I took a plunger to it (even though there wasn't anything stuck in it) and that seemed to work. The next day, it was back to poorly flushing again. Hated to leave it that way for the housekeeper, but what are you gonna do?
+Obviously, two elevators is a huge time saver. Breakfast area is nice and large. There are two desktop computers available for use. Within walking distance is Schlotzky's, Whataburger, Walgreens, Specs, and Gianna's Italian Kitchen (recommended), among other things. Across the highway are multiple restaurants, a Target, a Lowes, Academy sports, etc.....The hotel is about 150 yards off the freeway so no traffic noises. Pool area is large for a Holiday Inn (but it wasn't open yet when I was there.) 
+Oh yeah, the toenail....This hotel opened on June 24, 2015. We checked in June 25 so I was the first person to occupy my room. The pool was not ready yet. The room was clean (duh). Rate was $109 plus tax. Front desk service was attentive.My critique of a hotel revolves around PEP's Big 3: AC, Bed, Shower.AC gets huge props. Cold, cold cold. Bed grades an A, with both soft and firm pillows available. Shower grades a C, as the water never really got hot. I stayed here three nights and they never did get it fixed. I think there might be some plumbing problems here as the toilet wouldn't flush completely. I took a plunger to it (even though there wasn't anything stuck in it) and that seemed to work. The next day, it was back to poorly flushing again. Hated to leave it that way for the housekeeper, but what are you gonna do?Obviously, two elevators is a huge time saver. Breakfast area is nice and large. There are two desktop computers available for use. Within walking distance is Schlotzky's, Whataburger, Walgreens, Specs, and Gianna's Italian Kitchen (recommended), among other things. Across the highway are multiple restaurants, a Target, a Lowes, Academy sports, etc.....The hotel is about 150 yards off the freeway so no traffic noises. Pool area is large for a Holiday Inn (but it wasn't open yet when I was there.) Oh yeah, the toenail. After I took a shower one night, I threw a toenail behind the nightstand as my way of christening the room as the first visitor. I am not sure if this is a time-honored hotelier tradition, but maybe I'll start a trend.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1293,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1325,1981 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>138</v>
+      </c>
+      <c r="X13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>152</v>
+      </c>
+      <c r="X14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>160</v>
+      </c>
+      <c r="X15" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>167</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>160</v>
+      </c>
+      <c r="X16" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>183</v>
+      </c>
+      <c r="X18" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>191</v>
+      </c>
+      <c r="X19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>195</v>
+      </c>
+      <c r="J20" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>207</v>
+      </c>
+      <c r="X21" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>167</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>214</v>
+      </c>
+      <c r="X22" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" t="s">
+        <v>219</v>
+      </c>
+      <c r="K23" t="s">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s">
+        <v>221</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>174</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J24" t="s">
+        <v>225</v>
+      </c>
+      <c r="K24" t="s">
+        <v>226</v>
+      </c>
+      <c r="L24" t="s">
+        <v>227</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>228</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>229</v>
+      </c>
+      <c r="X24" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K25" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>237</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>238</v>
+      </c>
+      <c r="X25" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" t="s">
+        <v>243</v>
+      </c>
+      <c r="K26" t="s">
+        <v>244</v>
+      </c>
+      <c r="L26" t="s">
+        <v>245</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>228</v>
+      </c>
+      <c r="O26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>246</v>
+      </c>
+      <c r="X26" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>250</v>
+      </c>
+      <c r="J27" t="s">
+        <v>251</v>
+      </c>
+      <c r="K27" t="s">
+        <v>252</v>
+      </c>
+      <c r="L27" t="s">
+        <v>253</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>228</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>254</v>
+      </c>
+      <c r="X27" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>258</v>
+      </c>
+      <c r="J28" t="s">
+        <v>259</v>
+      </c>
+      <c r="K28" t="s">
+        <v>260</v>
+      </c>
+      <c r="L28" t="s">
+        <v>261</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>262</v>
+      </c>
+      <c r="O28" t="s">
+        <v>263</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>264</v>
+      </c>
+      <c r="X28" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29" t="s">
+        <v>269</v>
+      </c>
+      <c r="K29" t="s">
+        <v>270</v>
+      </c>
+      <c r="L29" t="s">
+        <v>271</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>272</v>
+      </c>
+      <c r="X29" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30" t="s">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" t="s">
+        <v>278</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>279</v>
+      </c>
+      <c r="O30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>272</v>
+      </c>
+      <c r="X30" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>281</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>282</v>
+      </c>
+      <c r="J31" t="s">
+        <v>283</v>
+      </c>
+      <c r="K31" t="s">
+        <v>284</v>
+      </c>
+      <c r="L31" t="s">
+        <v>285</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>286</v>
+      </c>
+      <c r="O31" t="s">
+        <v>79</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>287</v>
+      </c>
+      <c r="X31" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_333.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_333.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="447">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r612649504-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>56780</t>
+  </si>
+  <si>
+    <t>7374669</t>
+  </si>
+  <si>
+    <t>612649504</t>
+  </si>
+  <si>
+    <t>08/31/2018</t>
+  </si>
+  <si>
+    <t>Clean &amp; spacious, friendly &amp; convenient</t>
+  </si>
+  <si>
+    <t>I was given the accessible room on the 1st floor. It was spacious, clean, &amp; the decor was muted. Because the shower is wheelchair accessible, there is no barrier to hold the shower water in. Some of the shower water inevitably made it out to the entry hallway. This was easily wiped up. I did hear the TV in the adjacent room, but they turned it off about the time I went to bed. The breakfast had omelets, scrambled eggs, meats, pastries, cereal &amp; whole apples, oranges, bananas. The staff were friendly &amp; pleasant. The location was convenient.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r588567371-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>588567371</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Solid place to stay!</t>
+  </si>
+  <si>
+    <t>First, you should know that I stay in a lot of 2-3 star hotels while traveling with my son to baseball tournaments all around Texas.  When I give it a 5/5, I mean it was an excellent choice for a 2-3 star hotel.  Cleanliness is always my big one and our room here was very clean!  The breakfast was okay - until someone invents fake or powdered eggs that don't look and/or taste fake or powdered, breakfasts at these spots will always be okay at best!  Great location - close to lots of restaurants, shopping, and freeway access.  Staff was friendly.  Will definitely choose again when we are back in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>First, you should know that I stay in a lot of 2-3 star hotels while traveling with my son to baseball tournaments all around Texas.  When I give it a 5/5, I mean it was an excellent choice for a 2-3 star hotel.  Cleanliness is always my big one and our room here was very clean!  The breakfast was okay - until someone invents fake or powdered eggs that don't look and/or taste fake or powdered, breakfasts at these spots will always be okay at best!  Great location - close to lots of restaurants, shopping, and freeway access.  Staff was friendly.  Will definitely choose again when we are back in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r591723045-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>591723045</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>A+++</t>
+  </si>
+  <si>
+    <t>Stayed there for 3 weeks very modern very comfortable!! When in that area from this point on it will be the only place I will stay at from the comfortable beds to an awsome breakfast to very friendly and helpful staff</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r586082616-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
   </si>
   <si>
-    <t>56780</t>
-  </si>
-  <si>
-    <t>7374669</t>
-  </si>
-  <si>
     <t>586082616</t>
   </si>
   <si>
@@ -171,9 +231,6 @@
     <t>Was on an over night trip to the Houston area.  Needed a place to stay and found this place online.  The Holiday Inn Express Brand has become one of my favorites.  This one didn’t disappoint at all.  The room was very well appointed.  The bed was very comfy.  The bathroom was very clean.  Would definitely stay there again if I happen to be in the area.Only complaint that kept this from getting a 5 star rating was the room location and the noise.  We happen to have room 102.  It was located right next to an outside door.  Every time someone went through this door, we heard a very loud door slam.  Later in the evening it was so bad, as there were less people coming and going.  It was quite annoying.  So if you happen to stay here, don’t stay in 102!MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
@@ -198,9 +255,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Gabriel R, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded April 23, 2018</t>
   </si>
   <si>
@@ -237,6 +291,64 @@
     <t>I was attending a wedding and this was the official wedding hotel.  Upon checking in, I was given a little gift for staying, as well as a wedding favor left by the bride.  I was also told that the shuttle would be leaving in a little more than an hour to get to the venue (wedding was at 5pm).  So I got to the room and changed.  Upon my return to the hotel I showered and changed and crawled into the comfy bed.  The only bad thing was the noise coming from above.  No, it wasn't God trying to smite me, but I think it was a group of students that were staying there.  It kept me from falling asleep immediately, but since I had a lot of alcohol earlier in the evening sleep still came.  I tried to get up in time for breakfast, but wasn't able to.  But the room was nice, check in and check out was quick and easy, showers were hot, bed and pillows were comfy, and parking was free.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r499080398-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>499080398</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Bride's Nightmare</t>
+  </si>
+  <si>
+    <t>I booked a block of rooms a year prior to my wedding at the Holiday Inn Express and Suites in Tomball, TX. I also booked the conference room for my rehearsal dinner. I wanted to pay extra for the conference room and shuttles to the venue, so that people could enjoy their time and not worry about driving around. I called many times through the year to double check and confirm everything. 
+A week before the wedding the hotel called to let me know that they had double booked the conference room for the rehearsal dinner. The Hotel Coordinator told me she would call around to find another hotel to have my rehearsal dinner at. She told me that a company had booked that conference room for the whole week and they did not want to take down their decorations and supplies in that conference room for the evening. I called her back later that evening to ask what the plan was. She said that they would shuttle my whole party to the Hampton Inn for my rehearsal dinner. 
+I had 40 people at the rehearsal dinner and the room was supposedly capable for 40 people. The room was crammed full. I contemplated on asking for a larger room. There weren’t enough tables in that room, so we had to borrow some tables from the hotel lobby. People were sitting back to back. I tried to just let it go...I booked a block of rooms a year prior to my wedding at the Holiday Inn Express and Suites in Tomball, TX. I also booked the conference room for my rehearsal dinner. I wanted to pay extra for the conference room and shuttles to the venue, so that people could enjoy their time and not worry about driving around. I called many times through the year to double check and confirm everything. A week before the wedding the hotel called to let me know that they had double booked the conference room for the rehearsal dinner. The Hotel Coordinator told me she would call around to find another hotel to have my rehearsal dinner at. She told me that a company had booked that conference room for the whole week and they did not want to take down their decorations and supplies in that conference room for the evening. I called her back later that evening to ask what the plan was. She said that they would shuttle my whole party to the Hampton Inn for my rehearsal dinner. I had 40 people at the rehearsal dinner and the room was supposedly capable for 40 people. The room was crammed full. I contemplated on asking for a larger room. There weren’t enough tables in that room, so we had to borrow some tables from the hotel lobby. People were sitting back to back. I tried to just let it go during that time. People started to ride the shuttle back to the Holiday Inn around 9:00pm. I was told by the Hotel Coordinator to call the hotel when I wanted the shuttle. I called the hotel to ask where the shuttle was only to find out that they did not know and did not have his number. They couldn’t even help me. The employee was extremely rude on the phone and did not care that we were stranded at the hotel. I began to panic and called my wedding coordinator at Moffitt Oaks. She told me she would come pick up my whole party and take us to the hotel. One person out of the twelve that needed to get back to the hotel had a business card with the shuttle driver’s number. He called the driver and found out that they went home for the night. One shuttle driver came back thirty minutes later to pick up the rest of the group. For the night of my wedding I reserved a King bedroom for my husband and I to stay in at the hotel. I also booked the conference room at the hotel for the wedding party to hangout in after the wedding until 2:00am. We got back to the hotel around 10:15pm and checked in to our room, while at the counter a guest from the wedding party walked by. I told him that we had a conference room reserved and to let people know. The employee at the counter said, “No you only have that room till 11:00pm.” I said, “No, the Hotel Coordinator told me we had it until 2:00am.” She said, “No, our general manager change the time.” I was so stressed and just decided to give up and not try to argue anymore. We then walked to our room which was a double bed right next to the conference room. We went back to the front desk (in my wedding gown) and asked for a king bed which is what I reserved. The employee said that there were none available. I said to her “Oh my goodness, this is my wedding night and this hotel has messed up on so many things for my wedding.” I went back to my room to try and get some rest. I heard everyone through the wall! I was so tired and could not even fall asleep. About an hour later someone called our room to let us know there was a king bad available if we wanted to move. We decided to move rooms to a King suite. The General Manager talked to my husband out in the hall way to let him know that they were going to pay for that room for that night. He also told him that people could stay in the conference room until 2:00am. On May 23rd, my parents checked into the Holiday Inn Express and Suites in Tomball, TX. They were supposed to have a King Suite room. I wanted extra space in their room for all the decorations and gifts for my wedding. However, when they arrived they were told that they had a double bed bedroom. The employee argued with my mom. My mom did not want to tell me about it, because of everything else going on. He also told her that if there was excessive noise that there would be additional charges to her room. This was the biggest stress of my entire wedding. I could not believe how much went wrong with the Holiday Inn and how the employees treated my family and guests. I recommend future brides to look somewhere else to book for their stay. I reached out to the General Manager to let him know what had happened and tried to give them a chance to make things right. I emailed and called him multiple times. I gave him a week and half to respond to my email. I finally called the corporate office to make a complaint. He then called me shortly after I had filed the complaint. He told me he didn’t quite understand what was going on, so I let him know what had happened and told him that I had emailed him with the whole story. He told me he received the email, but wanted to get the facts straight. He asked me to give a him a couple days and that he would call me back. That was June 21st... and he still hasn’t responded.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Darrel S, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>I booked a block of rooms a year prior to my wedding at the Holiday Inn Express and Suites in Tomball, TX. I also booked the conference room for my rehearsal dinner. I wanted to pay extra for the conference room and shuttles to the venue, so that people could enjoy their time and not worry about driving around. I called many times through the year to double check and confirm everything. 
+A week before the wedding the hotel called to let me know that they had double booked the conference room for the rehearsal dinner. The Hotel Coordinator told me she would call around to find another hotel to have my rehearsal dinner at. She told me that a company had booked that conference room for the whole week and they did not want to take down their decorations and supplies in that conference room for the evening. I called her back later that evening to ask what the plan was. She said that they would shuttle my whole party to the Hampton Inn for my rehearsal dinner. 
+I had 40 people at the rehearsal dinner and the room was supposedly capable for 40 people. The room was crammed full. I contemplated on asking for a larger room. There weren’t enough tables in that room, so we had to borrow some tables from the hotel lobby. People were sitting back to back. I tried to just let it go...I booked a block of rooms a year prior to my wedding at the Holiday Inn Express and Suites in Tomball, TX. I also booked the conference room for my rehearsal dinner. I wanted to pay extra for the conference room and shuttles to the venue, so that people could enjoy their time and not worry about driving around. I called many times through the year to double check and confirm everything. A week before the wedding the hotel called to let me know that they had double booked the conference room for the rehearsal dinner. The Hotel Coordinator told me she would call around to find another hotel to have my rehearsal dinner at. She told me that a company had booked that conference room for the whole week and they did not want to take down their decorations and supplies in that conference room for the evening. I called her back later that evening to ask what the plan was. She said that they would shuttle my whole party to the Hampton Inn for my rehearsal dinner. I had 40 people at the rehearsal dinner and the room was supposedly capable for 40 people. The room was crammed full. I contemplated on asking for a larger room. There weren’t enough tables in that room, so we had to borrow some tables from the hotel lobby. People were sitting back to back. I tried to just let it go during that time. People started to ride the shuttle back to the Holiday Inn around 9:00pm. I was told by the Hotel Coordinator to call the hotel when I wanted the shuttle. I called the hotel to ask where the shuttle was only to find out that they did not know and did not have his number. They couldn’t even help me. The employee was extremely rude on the phone and did not care that we were stranded at the hotel. I began to panic and called my wedding coordinator at Moffitt Oaks. She told me she would come pick up my whole party and take us to the hotel. One person out of the twelve that needed to get back to the hotel had a business card with the shuttle driver’s number. He called the driver and found out that they went home for the night. One shuttle driver came back thirty minutes later to pick up the rest of the group. For the night of my wedding I reserved a King bedroom for my husband and I to stay in at the hotel. I also booked the conference room at the hotel for the wedding party to hangout in after the wedding until 2:00am. We got back to the hotel around 10:15pm and checked in to our room, while at the counter a guest from the wedding party walked by. I told him that we had a conference room reserved and to let people know. The employee at the counter said, “No you only have that room till 11:00pm.” I said, “No, the Hotel Coordinator told me we had it until 2:00am.” She said, “No, our general manager change the time.” I was so stressed and just decided to give up and not try to argue anymore. We then walked to our room which was a double bed right next to the conference room. We went back to the front desk (in my wedding gown) and asked for a king bed which is what I reserved. The employee said that there were none available. I said to her “Oh my goodness, this is my wedding night and this hotel has messed up on so many things for my wedding.” I went back to my room to try and get some rest. I heard everyone through the wall! I was so tired and could not even fall asleep. About an hour later someone called our room to let us know there was a king bad available if we wanted to move. We decided to move rooms to a King suite. The General Manager talked to my husband out in the hall way to let him know that they were going to pay for that room for that night. He also told him that people could stay in the conference room until 2:00am. On May 23rd, my parents checked into the Holiday Inn Express and Suites in Tomball, TX. They were supposed to have a King Suite room. I wanted extra space in their room for all the decorations and gifts for my wedding. However, when they arrived they were told that they had a double bed bedroom. The employee argued with my mom. My mom did not want to tell me about it, because of everything else going on. He also told her that if there was excessive noise that there would be additional charges to her room. This was the biggest stress of my entire wedding. I could not believe how much went wrong with the Holiday Inn and how the employees treated my family and guests. I recommend future brides to look somewhere else to book for their stay. I reached out to the General Manager to let him know what had happened and tried to give them a chance to make things right. I emailed and called him multiple times. I gave him a week and half to respond to my email. I finally called the corporate office to make a complaint. He then called me shortly after I had filed the complaint. He told me he didn’t quite understand what was going on, so I let him know what had happened and told him that I had emailed him with the whole story. He told me he received the email, but wanted to get the facts straight. He asked me to give a him a couple days and that he would call me back. That was June 21st... and he still hasn’t responded.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r490961989-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>490961989</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Weekdayt/Weekend</t>
+  </si>
+  <si>
+    <t>We've stayed here twice within the last month. We were pretty much satisfied except that the breakfast hours end way too early especially on the weekends. M-F 9:30 and S-S 10:00. Room 226 bathroom door won't stay open; swings shut. The middle hinge pin needs to be bent just a little to fix this problem. Also we were surprised to see that we had a shower-only room. This was OK except that the bathroom isn't big enough or configured properly to allow for a swing-open shower door. Maids always seem to forget to replace something. Suggest they be given a list to check-off. Saturday night there were a number of people talking loudly in the hall at midnight. We called the desk and the clerk handled it immediately. Room is comfortable though the pillows (firm or soft) seem to be fluffier or flatter rather than firm or soft.  Lack of bananas at breakfast on the weekend. I don't like that I am asked why I am in town when I check-in. Next time I will not say. Price really jumps on the weekend; not sure why.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>We've stayed here twice within the last month. We were pretty much satisfied except that the breakfast hours end way too early especially on the weekends. M-F 9:30 and S-S 10:00. Room 226 bathroom door won't stay open; swings shut. The middle hinge pin needs to be bent just a little to fix this problem. Also we were surprised to see that we had a shower-only room. This was OK except that the bathroom isn't big enough or configured properly to allow for a swing-open shower door. Maids always seem to forget to replace something. Suggest they be given a list to check-off. Saturday night there were a number of people talking loudly in the hall at midnight. We called the desk and the clerk handled it immediately. Room is comfortable though the pillows (firm or soft) seem to be fluffier or flatter rather than firm or soft.  Lack of bananas at breakfast on the weekend. I don't like that I am asked why I am in town when I check-in. Next time I will not say. Price really jumps on the weekend; not sure why.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r488459851-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
   </si>
   <si>
@@ -252,12 +364,6 @@
     <t xml:space="preserve">Great staff. This was probably the cleanest hotel we have ever stayed in. We travel a lot for baseball and always stay at Holiday Inn. This one is by far the cleanest I have come across. Bed very comfortable. Same free standard breakfast. Great place to stay. </t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r480357288-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
   </si>
   <si>
@@ -312,6 +418,60 @@
     <t>During our visit, we enjoyed staying at the Holiday Inn Express. The room had everything we could ask for, no noise and a great breakfast. Also, the staff was great. We will definitely stay here again when in the Houston area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r463272450-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>463272450</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Excellent Say</t>
+  </si>
+  <si>
+    <t>I arrived late that evening and was promptly greeted at the desk.  Check in was quick and the hotel smelled wonderful throughout.  There was a small buffet area in the hall and there was some pizza leftover from earlier.  The rooms were very clean and well kept.  The hotel is near two roadways and I never once heard any vehicle traffic.  The breakfast was the normal hot breakfast fare, but better than most.  Overall, I would recommend and  most certainly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Darrel S, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded February 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2017</t>
+  </si>
+  <si>
+    <t>I arrived late that evening and was promptly greeted at the desk.  Check in was quick and the hotel smelled wonderful throughout.  There was a small buffet area in the hall and there was some pizza leftover from earlier.  The rooms were very clean and well kept.  The hotel is near two roadways and I never once heard any vehicle traffic.  The breakfast was the normal hot breakfast fare, but better than most.  Overall, I would recommend and  most certainly stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r443175398-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>443175398</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t>Friendly People &amp; Clean Rooms!!!</t>
+  </si>
+  <si>
+    <t>We recently stayed for a wedding. Very clean rooms, appeared to be a new facility.  We booked a suite and it was a great size for 4 adults and a child. Did not feel crowded.  Loved the breakfast.  Those cinnamon rolls get a A++!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded December 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2016</t>
+  </si>
+  <si>
+    <t>We recently stayed for a wedding. Very clean rooms, appeared to be a new facility.  We booked a suite and it was a great size for 4 adults and a child. Did not feel crowded.  Loved the breakfast.  Those cinnamon rolls get a A++!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r420631008-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
   </si>
   <si>
@@ -391,6 +551,51 @@
   </si>
   <si>
     <t>Came for a soccer tournament was delighted upon arrival as this place is either new or really recently updated.  The rooms were clean, nice bath stuff, tv was as expected and beds felt new.  Small fridge fit waters and sport drinks.  Breakfast the next morning was great.  Everything was fresh.  Omelettes, Pancakes, bagels, sausages and gravy and biscuits.  Fruit and juices and coffee, etc... Probably the nicest breakfast layouts i have seen.  The staff was really friendly and accommodating.  The parking lot was safe and well lit. I think our team will continue to use this specific hotel for sure when we travel to this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r393491454-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>393491454</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Business Trip 30+ days</t>
+  </si>
+  <si>
+    <t>The facility and room were very clean and well maintained. The staff was friendly and knowledgeable. The breakfasts and Manager's Social that I attended had fresh, tasty food. Tomasa made sure that we felt at home and that all of our dining needs were met. Her warm smile every morning got our days off to a great start!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>The facility and room were very clean and well maintained. The staff was friendly and knowledgeable. The breakfasts and Manager's Social that I attended had fresh, tasty food. Tomasa made sure that we felt at home and that all of our dining needs were met. Her warm smile every morning got our days off to a great start!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r389810506-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>389810506</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>5-Star Customer Service!</t>
+  </si>
+  <si>
+    <t>The hotel was new and clean-which is always a huge factor for me and my family. The beds were a little firm, but for the most part comfortable. The price was comparable, actually slightly less than similar hotels nearby. Kyle was the hotel staff member that we had the most contact with &amp; the service he provided was 5 star-which seems to be rare this day in time. He was very professional, helpful, courteous, and really made a positive impact on our decision to stay at this hotel when we return to the area again. The hotel is also located in a convenient area near plenty of restaurants and shopping options. The only drawback is the breakfast-it was much to be desired. The food wasn't warm, fresh, nor well stocked, so we'll choose outside breakfast options next visit. Overall, it was a pleasant stay &amp; a great hotel. We look forward to staying again soon!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was new and clean-which is always a huge factor for me and my family. The beds were a little firm, but for the most part comfortable. The price was comparable, actually slightly less than similar hotels nearby. Kyle was the hotel staff member that we had the most contact with &amp; the service he provided was 5 star-which seems to be rare this day in time. He was very professional, helpful, courteous, and really made a positive impact on our decision to stay at this hotel when we return to the area again. The hotel is also located in a convenient area near plenty of restaurants and shopping options. The only drawback is the breakfast-it was much to be desired. The food wasn't warm, fresh, nor well stocked, so we'll choose outside breakfast options next visit. Overall, it was a pleasant stay &amp; a great hotel. We look forward to staying again soon!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r387590952-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
@@ -460,6 +665,57 @@
     <t>Every time you pass the front desk you are greeted. When you leave and even when you return you are welcomed back. They made us feel very comfortable. They were short staffed a few days we were there and obviously the hotel still has to run. Kyle ran the front desk but I saw him welcome the opportunity to help others in every way he could. He was at the pool doing the maintenance man's job at one point. I needed to approach other people for help and that did not go so well. This location is very fortunate to have Kyle. Kyle always has a smile on his face and is so great with the guests and children. He makes every effort to make every guest happy. He truly goes above and beyond what is expected from the front desk of a hotel. My families stay was for 8 days so I feel we got to know the staff pretty well. Kyle was someone we knew we could go to when we needed something. I would recommend you acknowledge your employees for the hard work they do. It can't be easy working a double shift while being short staffed too......and ran the location very smoothly.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r380251589-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>380251589</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Above and beyond</t>
+  </si>
+  <si>
+    <t>Our house flooded and the Tomball Holliday Inn Express extended up a special rate while we cleaned up.  We also had an excellent room on the first floor with no road noise.  The hotel is beautiful and new.  We could not ask for better service from Kimberly who made sure our stay was superior.MoreShow less</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Our house flooded and the Tomball Holliday Inn Express extended up a special rate while we cleaned up.  We also had an excellent room on the first floor with no road noise.  The hotel is beautiful and new.  We could not ask for better service from Kimberly who made sure our stay was superior.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r379984158-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>379984158</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Perfect - again!</t>
+  </si>
+  <si>
+    <t>True to my words, I came back when my business trip took me to the area.  The hotel is extremely clean and even opened close to a year, the staff did a really good job at maintaining the property.  All of the staff members encountered were super polite, smile on their face, and eager to assist in any way to make your stay very enjoyable.  I couldn't find a single thing wrong with my stay even if I tried.I honestly wish IHG uses this hotel as a training property for others, because it is really that good.  There are many other IHG properties can use the leadership expertise of this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded June 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2016</t>
+  </si>
+  <si>
+    <t>True to my words, I came back when my business trip took me to the area.  The hotel is extremely clean and even opened close to a year, the staff did a really good job at maintaining the property.  All of the staff members encountered were super polite, smile on their face, and eager to assist in any way to make your stay very enjoyable.  I couldn't find a single thing wrong with my stay even if I tried.I honestly wish IHG uses this hotel as a training property for others, because it is really that good.  There are many other IHG properties can use the leadership expertise of this property.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r377363835-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
   </si>
   <si>
@@ -475,9 +731,6 @@
     <t>I hadn't planned to stay in Tomball overnight, but a flood kept me from getting home. I was very impressed with the Holiday Inn! My room was immaculate, especially the bathroom. Plus, the front desk staff were very friendly. I appreciated the fact that the coffee pot was set up on the desk and not in the bathroom like other hotels. I would stay here again for sure.MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded May 31, 2016</t>
   </si>
   <si>
@@ -529,6 +782,48 @@
     <t>The hotel was clean, quiet, had decent wifi, and the usual free continental breakfast.  The staff was nice except for Joshua.  If he had been rude once I would have ignored it but he was rude multiple times.  I stayed here three different times during the months of March and April and every interaction with him except the last time was negative.  I'm assuming someone reported his behavior.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r375986672-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>375986672</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel!!!</t>
+  </si>
+  <si>
+    <t>This was the best hotel I have visited in a long while.  Everyone was so nice and helpful I would recommend this hotel to all of my friends.  The beds were so very comfy and I slept like a baby.  The breakfast was awesome and so was Tomasa!  I have to say that Tomasa was so professional, friendly, and she made sure I had a great breakfast experience.  I will come back again real soon and will also bring my family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was the best hotel I have visited in a long while.  Everyone was so nice and helpful I would recommend this hotel to all of my friends.  The beds were so very comfy and I slept like a baby.  The breakfast was awesome and so was Tomasa!  I have to say that Tomasa was so professional, friendly, and she made sure I had a great breakfast experience.  I will come back again real soon and will also bring my family and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r373066469-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>373066469</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>From the comfy beds to the awesome breakfast, this was a great experience! I would highly recommend this hotel. Tamasa was awesome and so friendly! I will continue to use this hotel for our travel home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>From the comfy beds to the awesome breakfast, this was a great experience! I would highly recommend this hotel. Tamasa was awesome and so friendly! I will continue to use this hotel for our travel home away from home.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r368273982-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
   </si>
   <si>
@@ -604,6 +899,51 @@
     <t>We spent just one night in this hotel before returning to Europe, but we loved it! It’s new, nicely decorated and very well laid out. We had the two queen bed suite, which was nice and spacious for the three of us. There was an extra table with chairs in the kitchenette. Very friendly staff who organize a managers reception on weekday afternoons. Breakfast had all the choices and was well kept. The business center was perfect for printing our airplane tickets. All in all a Holiday Inn Express as expected but with a nice extra touch! The Hertz Neverlost had some trouble localizing the hotel, but it’s right on the east Frontage road of the Tomball Tollway. Next time in Houston, we will be back!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r366367315-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>366367315</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>New hotel very clean</t>
+  </si>
+  <si>
+    <t>I stayed for 3 days and found it extremely clean and new - only open for 6 months i was told. The breakfasts were not so good, mostly industrial food but it is plentiful if it does not worry you.The staff were pretty helpful. There is a conference room, gym and ample parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed for 3 days and found it extremely clean and new - only open for 6 months i was told. The breakfasts were not so good, mostly industrial food but it is plentiful if it does not worry you.The staff were pretty helpful. There is a conference room, gym and ample parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r364733245-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>364733245</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>I spent 4 nights at Holiday Inn Express Tomball and I was totally blown away by the quality of the customer service.  The Hotel is exceptionally clean and everything was taken care of down to the smallest detail.  The manager and all of the staff were incredibly friendly &amp; helpful.  Thank you, Divyesh, for an excellent job.  It was so refreshing to see that "good old fashioned customer service" still exists.  The rooms were so clean and comfortable.  Wifi service was free in our room and even a business work station was available with computers, printer, etc on the main level for customers to use at no charge. Free breakfast was provided with a variety of items to choose from. Kind, courteous shuttle service was also provided.   I even had a kitchenette with microwave and refrigerator.WOW!  I will definitely stay here again and highly recommend it to anyone intending to stay in the Tomball area.  My thanks goes out to all the staff for a wonderful stay.  You made me feel right at home.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2016</t>
+  </si>
+  <si>
+    <t>I spent 4 nights at Holiday Inn Express Tomball and I was totally blown away by the quality of the customer service.  The Hotel is exceptionally clean and everything was taken care of down to the smallest detail.  The manager and all of the staff were incredibly friendly &amp; helpful.  Thank you, Divyesh, for an excellent job.  It was so refreshing to see that "good old fashioned customer service" still exists.  The rooms were so clean and comfortable.  Wifi service was free in our room and even a business work station was available with computers, printer, etc on the main level for customers to use at no charge. Free breakfast was provided with a variety of items to choose from. Kind, courteous shuttle service was also provided.   I even had a kitchenette with microwave and refrigerator.WOW!  I will definitely stay here again and highly recommend it to anyone intending to stay in the Tomball area.  My thanks goes out to all the staff for a wonderful stay.  You made me feel right at home.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r363467785-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
   </si>
   <si>
@@ -673,6 +1013,48 @@
     <t>I travel a lot for work and have stayed in plenty of hotels before and have certain preferences that come with staying in hotels and I have never had such great customer service before. I talked with a young lady I believe her name was Gabrielle, she went way above and beyond to make sure that my stay was nothing less than perfect. The young gentleman who checked me in Joshua was smiling before I walked in and the check in process was so smooth and fast. The next day Tomasa was a simple jewel she was already offering to replenish before I even knew I was needing it. Did not have a chance to meet the manager or I would have told him he has an amazing staff working for him. Great place to stay and will be back when I return to this area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r361514079-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>361514079</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Jim and Marge Whittaker</t>
+  </si>
+  <si>
+    <t>First,kudos  to Thomsa. She came to our table to see if how our  breakfast was. She then came back later to see if there was any item that she could bring to us.  She did all this with a smile.Our room on the third floor was quiet, but you could hear slamming doors. The staff was friendly. However the front desk was not available, even when the bell was rung at the desk. The breakfast area was extremely clean and seemed to be kept that way during our eating  time there.  No trash cans running over or spilled pancake batter. The hallways were clean. There was no little dust and trash items against the sides of the carpeting where it meets the wall, something that is very common and motels. I we will definitely stay at this motel again in the future. I hope that it will maintain the standards that are in place now. MoreShow less</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2016</t>
+  </si>
+  <si>
+    <t>First,kudos  to Thomsa. She came to our table to see if how our  breakfast was. She then came back later to see if there was any item that she could bring to us.  She did all this with a smile.Our room on the third floor was quiet, but you could hear slamming doors. The staff was friendly. However the front desk was not available, even when the bell was rung at the desk. The breakfast area was extremely clean and seemed to be kept that way during our eating  time there.  No trash cans running over or spilled pancake batter. The hallways were clean. There was no little dust and trash items against the sides of the carpeting where it meets the wall, something that is very common and motels. I we will definitely stay at this motel again in the future. I hope that it will maintain the standards that are in place now. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r357374220-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>357374220</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>It Was a good stay...</t>
+  </si>
+  <si>
+    <t>Wasn't great due a few minor things. First off, the walls are extremely thin, neighbors kept us up all night. Loud tv's, conversations and other activities. We couldn't get the room as cold as we'd like. The pool was nice, not heated and no towels while we were there, but not bad. And while the beds were very comfortable, the pillows lacked.Onto the positive, the man who checked us in, Mr. Garcia, was courteous and professional. We stayed in a King Suite which was spacious and very clean. A large bathroom, microwave, mini fridge and kitchen sink, HiSense flat screen and separate sitting area. Ample towels, which is always nice. A Keurig coffee maker with the standard coffee and tea, ours was working without issue. A couple paper/plastic goods in the cupboard. Bath &amp; Body toiletries. Plenty of outlets in the room. The breakfast area was large and appeared to have many options available. Overall our experience was good.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Wasn't great due a few minor things. First off, the walls are extremely thin, neighbors kept us up all night. Loud tv's, conversations and other activities. We couldn't get the room as cold as we'd like. The pool was nice, not heated and no towels while we were there, but not bad. And while the beds were very comfortable, the pillows lacked.Onto the positive, the man who checked us in, Mr. Garcia, was courteous and professional. We stayed in a King Suite which was spacious and very clean. A large bathroom, microwave, mini fridge and kitchen sink, HiSense flat screen and separate sitting area. Ample towels, which is always nice. A Keurig coffee maker with the standard coffee and tea, ours was working without issue. A couple paper/plastic goods in the cupboard. Bath &amp; Body toiletries. Plenty of outlets in the room. The breakfast area was large and appeared to have many options available. Overall our experience was good.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r356748972-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
   </si>
   <si>
@@ -745,6 +1127,54 @@
     <t>I stayed here for one night during a recent business trip and couldn't be happier.  This is a newer build HIE, designed with the latest modern amenities and furishings.The hotel is super clean and free of defects that are common with new builds that are thrown together in a hurry.  No nails sticking out, no paint smells, all in room appliances are in perfect working order, and all electric outlets are working and placed in every imaginable places - you will have plenty of places to plug in your chargers.Bathroom is well sized and has all the bath amenities one would expect plus a few extra goodies like makeup remover.  Faucet puts out a perfect amount of water in the optimized pressure and shower head provides a large spray pattern.Breakfast is the standard HIE spread.  Common and familiar everyday items that should get you charged and ready to go.Staff is friendly, effecient and accommodating.  Dinner restaurant recommendation was easy to find and super tasty.All in all, this is one of the best newer HIE I visited in a long time.  I would definitely come back when my next business trip take me to the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r335441816-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>335441816</t>
+  </si>
+  <si>
+    <t>12/28/2015</t>
+  </si>
+  <si>
+    <t>Super nice</t>
+  </si>
+  <si>
+    <t>We had a beautiful, spacious room with plenty of pillows. Staff was friendly &amp; helpful, and they have a huge, yummy breakfast spread. All these things helped us turn an unexpected (&amp; much resented) extra night's stay in town into a relaxing, fun time for our family. No complaints, not even from the 4-year-old. MoreShow less</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded December 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2015</t>
+  </si>
+  <si>
+    <t>We had a beautiful, spacious room with plenty of pillows. Staff was friendly &amp; helpful, and they have a huge, yummy breakfast spread. All these things helped us turn an unexpected (&amp; much resented) extra night's stay in town into a relaxing, fun time for our family. No complaints, not even from the 4-year-old. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r333016256-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>333016256</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Sparkling Clean</t>
+  </si>
+  <si>
+    <t>We thoroughly enjoyed our stay at this Holiday Inn Express.  The reception was friendly and attentive, handling several people at once with a pleasant attitude.  Our room was comfortable and the bathroom was spic and span.  Our room was over the dining and sitting area of the ground floor and we did have to deal with some loud talking from what seemed to be several people visiting.  This happened every evening and sometimes lasted until about 10 or so.  This could be a problem if you go to bed early, but we kept the TV on and that covered the sound.  Also had some children running overhead about the same time of night.  Both of these problems were probably because of our room location and I assume would not affect every room.  The best part of our stay was the excellent breakfast.  I LOVE their breakfasts and they are a little different every day.  This is definitely an outstanding hotel for it's type in the area.  I would return gladly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2015</t>
+  </si>
+  <si>
+    <t>We thoroughly enjoyed our stay at this Holiday Inn Express.  The reception was friendly and attentive, handling several people at once with a pleasant attitude.  Our room was comfortable and the bathroom was spic and span.  Our room was over the dining and sitting area of the ground floor and we did have to deal with some loud talking from what seemed to be several people visiting.  This happened every evening and sometimes lasted until about 10 or so.  This could be a problem if you go to bed early, but we kept the TV on and that covered the sound.  Also had some children running overhead about the same time of night.  Both of these problems were probably because of our room location and I assume would not affect every room.  The best part of our stay was the excellent breakfast.  I LOVE their breakfasts and they are a little different every day.  This is definitely an outstanding hotel for it's type in the area.  I would return gladly.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r331015346-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
   </si>
   <si>
@@ -811,9 +1241,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded November 1, 2015</t>
   </si>
   <si>
@@ -821,6 +1248,57 @@
   </si>
   <si>
     <t>What a wonderful surprise this hotel smelled clean!!  It was clean but to smell clean well for a hotel that is saying something!!!  Big rooms great staff!! Would stay again however next time I will ask what they clean withMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r321943629-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>321943629</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Very Clean, Great service &amp; breakfast</t>
+  </si>
+  <si>
+    <t>Rooms were VERY CLEAN!  OUTSTANDING BREAKFASTS! Excellent customer service!! Best place I have stayed in years!!!!! Wonderful business center, ample parking. Stayed for a week while attending a seminar nearby.. was very pleased with the comfy beds and pillows!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded October 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2015</t>
+  </si>
+  <si>
+    <t>Rooms were VERY CLEAN!  OUTSTANDING BREAKFASTS! Excellent customer service!! Best place I have stayed in years!!!!! Wonderful business center, ample parking. Stayed for a week while attending a seminar nearby.. was very pleased with the comfy beds and pillows!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r321492916-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>321492916</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Absolutely superb from start to finish.</t>
+  </si>
+  <si>
+    <t>We booked a block of rooms in this hotel for out of town guests for my son's wedding.  The initial work with Paige was flawless.  She was super friendly and accommodating.  The manager of the hotel, Divyesh, was beyond fabulous.  He anticipated our every need.  If he told us he would do something, it was always completed.  The entire staff (I feel bad I can't remember the main check in person because she was also so friendly) was wonderful.  Our friends and family have all complimented us on the wonderful time they had at the hotel.  We used an extra large room as a hospitality room - Divyesh removed the furniture to open up the room for guests.  He is amazing!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Divyesh P, Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded October 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2015</t>
+  </si>
+  <si>
+    <t>We booked a block of rooms in this hotel for out of town guests for my son's wedding.  The initial work with Paige was flawless.  She was super friendly and accommodating.  The manager of the hotel, Divyesh, was beyond fabulous.  He anticipated our every need.  If he told us he would do something, it was always completed.  The entire staff (I feel bad I can't remember the main check in person because she was also so friendly) was wonderful.  Our friends and family have all complimented us on the wonderful time they had at the hotel.  We used an extra large room as a hospitality room - Divyesh removed the furniture to open up the room for guests.  He is amazing!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d7374669-r318677165-Holiday_Inn_Express_Suites_Houston_NW_Tomball_Area-Tomball_Texas.html</t>
@@ -883,9 +1361,6 @@
 I think there might be some plumbing problems here as the toilet wouldn't flush completely. I took a plunger to it (even though there wasn't anything stuck in it) and that seemed to work. The next day, it was back to poorly flushing again. Hated to leave it that way for the housekeeper, but what are you gonna do?
 Obviously, two elevators is a huge time saver. Breakfast area is nice and large. There are two desktop computers available for use. Within walking distance is Schlotzky's, Whataburger, Walgreens, Specs, and Gianna's Italian Kitchen (recommended), among other things. Across the highway are multiple restaurants, a Target, a Lowes, Academy sports, etc.....The hotel is about 150 yards off the freeway so no traffic noises. Pool area is large for a Holiday Inn (but it wasn't open yet when I was there.) 
 Oh yeah, the toenail....This hotel opened on June 24, 2015. We checked in June 25 so I was the first person to occupy my room. The pool was not ready yet. The room was clean (duh). Rate was $109 plus tax. Front desk service was attentive.My critique of a hotel revolves around PEP's Big 3: AC, Bed, Shower.AC gets huge props. Cold, cold cold. Bed grades an A, with both soft and firm pillows available. Shower grades a C, as the water never really got hot. I stayed here three nights and they never did get it fixed. I think there might be some plumbing problems here as the toilet wouldn't flush completely. I took a plunger to it (even though there wasn't anything stuck in it) and that seemed to work. The next day, it was back to poorly flushing again. Hated to leave it that way for the housekeeper, but what are you gonna do?Obviously, two elevators is a huge time saver. Breakfast area is nice and large. There are two desktop computers available for use. Within walking distance is Schlotzky's, Whataburger, Walgreens, Specs, and Gianna's Italian Kitchen (recommended), among other things. Across the highway are multiple restaurants, a Target, a Lowes, Academy sports, etc.....The hotel is about 150 yards off the freeway so no traffic noises. Pool area is large for a Holiday Inn (but it wasn't open yet when I was there.) Oh yeah, the toenail. After I took a shower one night, I threw a toenail behind the nightstand as my way of christening the room as the first visitor. I am not sure if this is a time-honored hotelier tradition, but maybe I'll start a trend.MoreShow less</t>
-  </si>
-  <si>
-    <t>June 2015</t>
   </si>
   <si>
     <t>Divyesh P, General Manager at Holiday Inn Express &amp; Suites Houston NW - Tomball Area, responded to this reviewResponded July 22, 2015</t>
@@ -1454,7 +1929,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1470,7 +1945,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -1479,43 +1954,45 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1531,7 +2008,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1540,49 +2017,39 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" t="s">
-        <v>71</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1598,7 +2065,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1607,25 +2074,25 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1639,7 +2106,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1655,7 +2122,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1664,49 +2131,43 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1722,7 +2183,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1731,43 +2192,49 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1783,7 +2250,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1792,43 +2259,45 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1844,7 +2313,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1853,49 +2322,49 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="X9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -1911,7 +2380,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1920,49 +2389,39 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>122</v>
-      </c>
-      <c r="X10" t="s">
-        <v>123</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -1978,7 +2437,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1987,32 +2446,34 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -2021,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -2043,7 +2504,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2052,25 +2513,25 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2082,13 +2543,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -2104,7 +2565,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2113,35 +2574,37 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
         <v>135</v>
       </c>
-      <c r="K13" t="s">
-        <v>143</v>
-      </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>79</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2153,7 +2616,7 @@
         <v>139</v>
       </c>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -2169,7 +2632,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2178,25 +2641,25 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2208,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="X14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
@@ -2230,7 +2693,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2239,25 +2702,25 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2269,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -2291,7 +2754,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2300,43 +2763,49 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>164</v>
       </c>
-      <c r="J16" t="s">
-        <v>157</v>
-      </c>
-      <c r="K16" t="s">
-        <v>165</v>
-      </c>
-      <c r="L16" t="s">
-        <v>166</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>167</v>
-      </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="X16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
@@ -2352,7 +2821,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2361,32 +2830,34 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
         <v>170</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>171</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>172</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>173</v>
       </c>
-      <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>174</v>
-      </c>
       <c r="O17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -2395,13 +2866,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X17" t="s">
         <v>175</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>176</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="18">
@@ -2417,7 +2888,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2426,32 +2897,38 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
         <v>179</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>180</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>181</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
         <v>182</v>
       </c>
-      <c r="M18" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" t="s">
-        <v>167</v>
-      </c>
       <c r="O18" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
@@ -2502,17 +2979,17 @@
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O19" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>5</v>
@@ -2520,14 +2997,10 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
         <v>191</v>
-      </c>
-      <c r="X19" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="20">
@@ -2543,7 +3016,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2552,47 +3025,47 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
         <v>195</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>196</v>
-      </c>
-      <c r="K20" t="s">
-        <v>197</v>
-      </c>
-      <c r="L20" t="s">
-        <v>198</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
+        <v>197</v>
+      </c>
+      <c r="X20" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y20" t="s">
         <v>199</v>
-      </c>
-      <c r="X20" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="21">
@@ -2608,7 +3081,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2617,47 +3090,43 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" t="s">
         <v>203</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>204</v>
       </c>
-      <c r="K21" t="s">
-        <v>205</v>
-      </c>
-      <c r="L21" t="s">
-        <v>206</v>
-      </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
+        <v>205</v>
+      </c>
+      <c r="X21" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y21" t="s">
         <v>207</v>
-      </c>
-      <c r="X21" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="22">
@@ -2673,7 +3142,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2682,49 +3151,47 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s">
         <v>211</v>
       </c>
-      <c r="J22" t="s">
-        <v>204</v>
-      </c>
-      <c r="K22" t="s">
-        <v>212</v>
-      </c>
-      <c r="L22" t="s">
-        <v>213</v>
-      </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
         <v>5</v>
       </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="X22" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="Y22" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23">
@@ -2740,7 +3207,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2749,43 +3216,49 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J23" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K23" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="O23" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>218</v>
+      </c>
+      <c r="X23" t="s">
+        <v>219</v>
+      </c>
       <c r="Y23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
@@ -2801,7 +3274,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2810,47 +3283,49 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s">
         <v>224</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>225</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>226</v>
-      </c>
-      <c r="L24" t="s">
-        <v>227</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>228</v>
       </c>
       <c r="O24" t="s">
         <v>52</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
       <c r="R24" t="n">
         <v>5</v>
       </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
+        <v>227</v>
+      </c>
+      <c r="X24" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y24" t="s">
         <v>229</v>
-      </c>
-      <c r="X24" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="25">
@@ -2866,7 +3341,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -2875,25 +3350,25 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s">
         <v>233</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>234</v>
       </c>
-      <c r="K25" t="s">
-        <v>235</v>
-      </c>
-      <c r="L25" t="s">
-        <v>236</v>
-      </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2905,13 +3380,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="X25" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Y25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
@@ -2927,7 +3402,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -2936,25 +3411,25 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" t="s">
+        <v>240</v>
+      </c>
+      <c r="K26" t="s">
+        <v>241</v>
+      </c>
+      <c r="L26" t="s">
         <v>242</v>
       </c>
-      <c r="J26" t="s">
-        <v>243</v>
-      </c>
-      <c r="K26" t="s">
-        <v>244</v>
-      </c>
-      <c r="L26" t="s">
-        <v>245</v>
-      </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -2966,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="X26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Y26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27">
@@ -2988,7 +3463,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -2997,47 +3472,43 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
+        <v>247</v>
+      </c>
+      <c r="J27" t="s">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s">
+        <v>248</v>
+      </c>
+      <c r="L27" t="s">
+        <v>249</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
         <v>250</v>
       </c>
-      <c r="J27" t="s">
-        <v>251</v>
-      </c>
-      <c r="K27" t="s">
-        <v>252</v>
-      </c>
-      <c r="L27" t="s">
-        <v>253</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>228</v>
-      </c>
       <c r="O27" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="X27" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="Y27" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
@@ -3053,7 +3524,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3062,34 +3533,34 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="J28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="O28" t="s">
-        <v>263</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3098,13 +3569,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="X28" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="Y28" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
@@ -3120,7 +3591,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3129,43 +3600,47 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J29" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="K29" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="X29" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="Y29" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
@@ -3181,7 +3656,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3190,34 +3665,32 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="J30" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="K30" t="s">
-        <v>49</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>271</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="n">
         <v>4</v>
       </c>
-      <c r="N30" t="s">
-        <v>279</v>
-      </c>
-      <c r="O30" t="s">
-        <v>79</v>
-      </c>
-      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -3232,7 +3705,7 @@
         <v>273</v>
       </c>
       <c r="Y30" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31">
@@ -3248,7 +3721,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3257,49 +3730,1378 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="J31" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="O31" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
+        <v>280</v>
+      </c>
+      <c r="X31" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>284</v>
+      </c>
+      <c r="J32" t="s">
+        <v>285</v>
+      </c>
+      <c r="K32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s">
         <v>287</v>
       </c>
-      <c r="X31" t="s">
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>250</v>
+      </c>
+      <c r="O32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
         <v>288</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="X32" t="s">
         <v>289</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>292</v>
+      </c>
+      <c r="J33" t="s">
+        <v>293</v>
+      </c>
+      <c r="K33" t="s">
+        <v>294</v>
+      </c>
+      <c r="L33" t="s">
+        <v>295</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>250</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>288</v>
+      </c>
+      <c r="X33" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>298</v>
+      </c>
+      <c r="J34" t="s">
+        <v>299</v>
+      </c>
+      <c r="K34" t="s">
+        <v>300</v>
+      </c>
+      <c r="L34" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>250</v>
+      </c>
+      <c r="O34" t="s">
+        <v>302</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>303</v>
+      </c>
+      <c r="X34" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>306</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>307</v>
+      </c>
+      <c r="J35" t="s">
+        <v>308</v>
+      </c>
+      <c r="K35" t="s">
+        <v>309</v>
+      </c>
+      <c r="L35" t="s">
+        <v>310</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>250</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>311</v>
+      </c>
+      <c r="X35" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>314</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>315</v>
+      </c>
+      <c r="J36" t="s">
+        <v>316</v>
+      </c>
+      <c r="K36" t="s">
+        <v>317</v>
+      </c>
+      <c r="L36" t="s">
+        <v>318</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>250</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>319</v>
+      </c>
+      <c r="X36" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>322</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>323</v>
+      </c>
+      <c r="J37" t="s">
+        <v>316</v>
+      </c>
+      <c r="K37" t="s">
+        <v>324</v>
+      </c>
+      <c r="L37" t="s">
+        <v>325</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>250</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>326</v>
+      </c>
+      <c r="X37" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>329</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>330</v>
+      </c>
+      <c r="J38" t="s">
+        <v>331</v>
+      </c>
+      <c r="K38" t="s">
+        <v>332</v>
+      </c>
+      <c r="L38" t="s">
+        <v>333</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>250</v>
+      </c>
+      <c r="O38" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>334</v>
+      </c>
+      <c r="X38" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>337</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>338</v>
+      </c>
+      <c r="J39" t="s">
+        <v>339</v>
+      </c>
+      <c r="K39" t="s">
+        <v>340</v>
+      </c>
+      <c r="L39" t="s">
+        <v>341</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>271</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>343</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>344</v>
+      </c>
+      <c r="J40" t="s">
+        <v>345</v>
+      </c>
+      <c r="K40" t="s">
+        <v>346</v>
+      </c>
+      <c r="L40" t="s">
+        <v>347</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>271</v>
+      </c>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>349</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>350</v>
+      </c>
+      <c r="J41" t="s">
+        <v>351</v>
+      </c>
+      <c r="K41" t="s">
+        <v>352</v>
+      </c>
+      <c r="L41" t="s">
+        <v>353</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>354</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>355</v>
+      </c>
+      <c r="X41" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>358</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>359</v>
+      </c>
+      <c r="J42" t="s">
+        <v>360</v>
+      </c>
+      <c r="K42" t="s">
+        <v>361</v>
+      </c>
+      <c r="L42" t="s">
+        <v>362</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>363</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>364</v>
+      </c>
+      <c r="X42" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>367</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>368</v>
+      </c>
+      <c r="J43" t="s">
+        <v>369</v>
+      </c>
+      <c r="K43" t="s">
+        <v>370</v>
+      </c>
+      <c r="L43" t="s">
+        <v>371</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>372</v>
+      </c>
+      <c r="X43" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>375</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>376</v>
+      </c>
+      <c r="J44" t="s">
+        <v>377</v>
+      </c>
+      <c r="K44" t="s">
+        <v>378</v>
+      </c>
+      <c r="L44" t="s">
+        <v>379</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>354</v>
+      </c>
+      <c r="O44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>380</v>
+      </c>
+      <c r="X44" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>383</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>384</v>
+      </c>
+      <c r="J45" t="s">
+        <v>385</v>
+      </c>
+      <c r="K45" t="s">
+        <v>386</v>
+      </c>
+      <c r="L45" t="s">
+        <v>387</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>354</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>388</v>
+      </c>
+      <c r="X45" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>391</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>392</v>
+      </c>
+      <c r="J46" t="s">
+        <v>393</v>
+      </c>
+      <c r="K46" t="s">
+        <v>394</v>
+      </c>
+      <c r="L46" t="s">
+        <v>395</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>354</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>396</v>
+      </c>
+      <c r="X46" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>399</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>400</v>
+      </c>
+      <c r="J47" t="s">
+        <v>401</v>
+      </c>
+      <c r="K47" t="s">
+        <v>402</v>
+      </c>
+      <c r="L47" t="s">
+        <v>403</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>404</v>
+      </c>
+      <c r="O47" t="s">
+        <v>302</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>405</v>
+      </c>
+      <c r="X47" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>408</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>409</v>
+      </c>
+      <c r="J48" t="s">
+        <v>410</v>
+      </c>
+      <c r="K48" t="s">
+        <v>411</v>
+      </c>
+      <c r="L48" t="s">
+        <v>412</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>404</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>413</v>
+      </c>
+      <c r="X48" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>416</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>417</v>
+      </c>
+      <c r="J49" t="s">
+        <v>418</v>
+      </c>
+      <c r="K49" t="s">
+        <v>419</v>
+      </c>
+      <c r="L49" t="s">
+        <v>420</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>421</v>
+      </c>
+      <c r="O49" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>422</v>
+      </c>
+      <c r="X49" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>425</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>426</v>
+      </c>
+      <c r="J50" t="s">
+        <v>427</v>
+      </c>
+      <c r="K50" t="s">
+        <v>428</v>
+      </c>
+      <c r="L50" t="s">
+        <v>429</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>404</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>430</v>
+      </c>
+      <c r="X50" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>433</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>434</v>
+      </c>
+      <c r="J51" t="s">
+        <v>435</v>
+      </c>
+      <c r="K51" t="s">
+        <v>69</v>
+      </c>
+      <c r="L51" t="s">
+        <v>436</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>437</v>
+      </c>
+      <c r="O51" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>430</v>
+      </c>
+      <c r="X51" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63815</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>439</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>440</v>
+      </c>
+      <c r="J52" t="s">
+        <v>441</v>
+      </c>
+      <c r="K52" t="s">
+        <v>442</v>
+      </c>
+      <c r="L52" t="s">
+        <v>443</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>421</v>
+      </c>
+      <c r="O52" t="s">
+        <v>59</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>444</v>
+      </c>
+      <c r="X52" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
